--- a/CANShield_BOM.xlsx
+++ b/CANShield_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Entwicklung\GitHub\CANShield\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B524C2-5B23-4BD1-A027-16E7ED9ADB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30A66E8-AB9C-4E7B-8109-D45D94A34139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6315" yWindow="4065" windowWidth="30045" windowHeight="15360" xr2:uid="{A5E4E68B-F23C-4E51-8A69-B6535AD57798}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
   <si>
     <t>Comment</t>
   </si>
@@ -153,42 +153,6 @@
   </si>
   <si>
     <t>155124M173200:LED_155124M173200</t>
-  </si>
-  <si>
-    <t>Conn_02x19_Odd_Even</t>
-  </si>
-  <si>
-    <t>J101,J102</t>
-  </si>
-  <si>
-    <t>Connector_PinSocket_2.54mm:PinSocket_2x19_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>Conn_01x04_Socket</t>
-  </si>
-  <si>
-    <t>J103</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_1x04_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>Conn_01x06_Socket</t>
-  </si>
-  <si>
-    <t>J104</t>
-  </si>
-  <si>
-    <t>Connector_Molex:Molex_PicoBlade_53048-0610_1x06_P1.25mm_Horizontal</t>
-  </si>
-  <si>
-    <t>Jumper_2_Open</t>
-  </si>
-  <si>
-    <t>JP101,JP104</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_1x02_P2.54mm_Vertical</t>
   </si>
   <si>
     <t>BLM15AG121SN1D</t>
@@ -683,16 +647,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70EE31CC-C104-46AB-8324-74645F964C2E}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -858,77 +822,89 @@
       <c r="C12" t="s">
         <v>41</v>
       </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
         <v>49</v>
       </c>
-      <c r="C15" t="s">
-        <v>50</v>
+      <c r="D15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
         <v>62</v>
@@ -936,114 +912,58 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" t="s">
         <v>78</v>
-      </c>
-      <c r="D23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
